--- a/Data/관심주_수급주.xlsx
+++ b/Data/관심주_수급주.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-12" yWindow="3960" windowWidth="22200" windowHeight="3996" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-12" yWindow="-12" windowWidth="23088" windowHeight="4752" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="상승파동비율" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="위치정보" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="매수" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="매도" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="발굴사유" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="매수" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="매도" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -137,7 +138,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -190,6 +191,9 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -557,10 +561,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.21875" defaultRowHeight="14.4"/>
@@ -677,70 +681,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20230116</t>
+          <t>20230129</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001820</t>
+          <t>108320</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>삼화콘덴서</t>
+          <t>LX세미콘</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38750</v>
+        <v>80800</v>
       </c>
       <c r="E2" t="n">
-        <v>29037</v>
+        <v>70582</v>
       </c>
       <c r="F2" t="n">
-        <v>31659</v>
+        <v>75274</v>
       </c>
       <c r="G2" t="n">
-        <v>34718</v>
+        <v>80748</v>
       </c>
       <c r="H2" t="n">
-        <v>37777</v>
+        <v>86222</v>
       </c>
       <c r="I2" t="n">
-        <v>39525</v>
+        <v>89350</v>
       </c>
       <c r="J2" t="n">
-        <v>45293</v>
+        <v>99672</v>
       </c>
       <c r="K2" t="n">
-        <v>50450</v>
+        <v>108900</v>
       </c>
       <c r="L2" t="n">
-        <v>55606</v>
+        <v>118127</v>
       </c>
       <c r="M2" t="n">
-        <v>64958</v>
+        <v>134862</v>
       </c>
       <c r="N2" t="n">
-        <v>72300</v>
+        <v>148000</v>
       </c>
       <c r="O2" t="n">
-        <v>88993</v>
+        <v>177872</v>
       </c>
       <c r="P2" t="n">
-        <v>99743</v>
+        <v>197109</v>
       </c>
       <c r="Q2" t="n">
-        <v>116000</v>
+        <v>226200</v>
       </c>
       <c r="R2" t="n">
-        <v>23245</v>
+        <v>79573</v>
       </c>
       <c r="S2" t="n">
-        <v>28600</v>
+        <v>69800</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2023-01-03</t>
+          <t>2023-01-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>20230129</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>108320</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>LX세미콘</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>80800</v>
+      </c>
+      <c r="E3" t="n">
+        <v>70582</v>
+      </c>
+      <c r="F3" t="n">
+        <v>75274</v>
+      </c>
+      <c r="G3" t="n">
+        <v>80748</v>
+      </c>
+      <c r="H3" t="n">
+        <v>86222</v>
+      </c>
+      <c r="I3" t="n">
+        <v>89350</v>
+      </c>
+      <c r="J3" t="n">
+        <v>99672</v>
+      </c>
+      <c r="K3" t="n">
+        <v>108900</v>
+      </c>
+      <c r="L3" t="n">
+        <v>118127</v>
+      </c>
+      <c r="M3" t="n">
+        <v>134862</v>
+      </c>
+      <c r="N3" t="n">
+        <v>148000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>177872</v>
+      </c>
+      <c r="P3" t="n">
+        <v>197109</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>226200</v>
+      </c>
+      <c r="R3" t="n">
+        <v>79573</v>
+      </c>
+      <c r="S3" t="n">
+        <v>69800</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2023-01-02</t>
         </is>
       </c>
     </row>
@@ -756,10 +830,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -776,6 +850,7 @@
     <col width="7.77734375" bestFit="1" customWidth="1" min="11" max="11"/>
     <col width="13.5546875" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="9.5546875" bestFit="1" customWidth="1" min="13" max="14"/>
+    <col width="11.21875" customWidth="1" min="15" max="15"/>
     <col width="13.44140625" bestFit="1" customWidth="1" min="16" max="16"/>
     <col width="18" customWidth="1" min="17" max="17"/>
     <col width="13.44140625" bestFit="1" customWidth="1" min="18" max="18"/>
@@ -854,12 +929,12 @@
       </c>
       <c r="O1" s="3" t="inlineStr">
         <is>
-          <t>3년이평</t>
+          <t>주봉60시가</t>
         </is>
       </c>
       <c r="P1" s="3" t="inlineStr">
         <is>
-          <t>3년이평이격률</t>
+          <t>주봉60종가</t>
         </is>
       </c>
       <c r="Q1" s="3" t="inlineStr">
@@ -870,64 +945,59 @@
       <c r="R1" s="3" t="inlineStr">
         <is>
           <t>3년이격률최근</t>
-        </is>
-      </c>
-      <c r="S1" s="3" t="inlineStr">
-        <is>
-          <t>주체</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20230116</t>
+          <t>20230129</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001820</t>
+          <t>108320</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>삼화콘덴서</t>
+          <t>LX세미콘</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38750</v>
+        <v>80800</v>
       </c>
       <c r="E2" t="n">
-        <v>28600</v>
+        <v>69800</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-01-03</t>
+          <t>2023-01-02</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>72300</v>
+        <v>148000</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2022-01-11</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>72300</v>
+        <v>161800</v>
       </c>
       <c r="J2" t="n">
-        <v>28600</v>
+        <v>67500</v>
       </c>
       <c r="K2" t="n">
-        <v>36105</v>
+        <v>85830</v>
       </c>
       <c r="L2" t="n">
-        <v>107.32</v>
+        <v>94.14</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>봄1</t>
+          <t>겨울1</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -936,10 +1006,74 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>77000</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>77300</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>20230129</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>108320</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>LX세미콘</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>80800</v>
+      </c>
+      <c r="E3" t="n">
+        <v>69800</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2023-01-02</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>148000</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2022-04-04</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>161800</v>
+      </c>
+      <c r="J3" t="n">
+        <v>67500</v>
+      </c>
+      <c r="K3" t="n">
+        <v>85830</v>
+      </c>
+      <c r="L3" t="n">
+        <v>94.14</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>77000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>77300</v>
       </c>
     </row>
   </sheetData>
@@ -948,6 +1082,101 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="10.33203125" bestFit="1" customWidth="1" style="19" min="1" max="1"/>
+    <col width="7" bestFit="1" customWidth="1" style="19" min="2" max="2"/>
+    <col width="21.21875" customWidth="1" style="19" min="3" max="3"/>
+    <col width="155" customWidth="1" style="19" min="4" max="4"/>
+    <col width="8.88671875" customWidth="1" style="19" min="5" max="9"/>
+    <col width="8.88671875" customWidth="1" style="19" min="10" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>티커</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>종목</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>20230129</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>108320</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>LX세미콘</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">주봉10선 돌파/월봉5선 돌파
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>20230129</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>108320</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>LX세미콘</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>주봉10선 돌파/월봉5선 돌파
+외국인 매수 순위가 점차 상승하여 8위가 되었음</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1026,7 +1255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Data/관심주_수급주.xlsx
+++ b/Data/관심주_수급주.xlsx
@@ -564,7 +564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
@@ -1661,6 +1661,216 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>377450</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>리파인</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>10870</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7077</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7539</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8078</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8617</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8925</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9941</v>
+      </c>
+      <c r="K16" t="n">
+        <v>10850</v>
+      </c>
+      <c r="L16" t="n">
+        <v>11758</v>
+      </c>
+      <c r="M16" t="n">
+        <v>13406</v>
+      </c>
+      <c r="N16" t="n">
+        <v>14700</v>
+      </c>
+      <c r="O16" t="n">
+        <v>17641</v>
+      </c>
+      <c r="P16" t="n">
+        <v>19535</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>22400</v>
+      </c>
+      <c r="R16" t="n">
+        <v>10552</v>
+      </c>
+      <c r="S16" t="n">
+        <v>7000</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>2022-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007660</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>이수페타시스</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>8560</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4798</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5026</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5293</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5560</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5712</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6215</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6665</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7114</v>
+      </c>
+      <c r="M17" t="n">
+        <v>7929</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8570</v>
+      </c>
+      <c r="O17" t="n">
+        <v>10025</v>
+      </c>
+      <c r="P17" t="n">
+        <v>10962</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>12380</v>
+      </c>
+      <c r="R17" t="n">
+        <v>992</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4760</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>237820</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>플레이디</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>8520</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4525</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4767</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5049</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5332</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5493</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6026</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6502</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6978</v>
+      </c>
+      <c r="M18" t="n">
+        <v>7842</v>
+      </c>
+      <c r="N18" t="n">
+        <v>8520</v>
+      </c>
+      <c r="O18" t="n">
+        <v>10061</v>
+      </c>
+      <c r="P18" t="n">
+        <v>11053</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>12555</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4277</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4485</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1673,7 +1883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD15"/>
@@ -2687,6 +2897,198 @@
         <v>10760</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>377450</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>리파인</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>10870</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2022-12-26</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>14700</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2022-05-04</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>15300</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6980</v>
+      </c>
+      <c r="K16" t="n">
+        <v>8785</v>
+      </c>
+      <c r="L16" t="n">
+        <v>123.72</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>10110</v>
+      </c>
+      <c r="P16" t="n">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007660</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>이수페타시스</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>8560</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4760</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>8570</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2022-04-19</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>8720</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4655</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6101</v>
+      </c>
+      <c r="L17" t="n">
+        <v>140.29</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>7460</v>
+      </c>
+      <c r="P17" t="n">
+        <v>7360</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>237820</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>플레이디</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>8520</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4485</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>8520</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>8820</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4450</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5458</v>
+      </c>
+      <c r="L18" t="n">
+        <v>156.09</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>7940</v>
+      </c>
+      <c r="P18" t="n">
+        <v>7670</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2698,7 +3100,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD15"/>
@@ -3081,6 +3483,73 @@
         <is>
           <t>마이데이터라는 테마가 낮설지만 관련 종목들에 수급이 몰려 있다.
 외인/기관이 잡아먹으면서 올라가는 종목에 관심을 가질 필요가 있다</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>377450</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>리파인</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>순위급등/외국인/소형주</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007660</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>이수페타시스</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>외국인/코스피/컵핸들</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>237820</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>플레이디</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>내일 바로 급등할 가능성 있음
+외인/코스닥</t>
         </is>
       </c>
     </row>

--- a/Data/관심주_수급주.xlsx
+++ b/Data/관심주_수급주.xlsx
@@ -564,7 +564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
@@ -1871,6 +1871,76 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>096610</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>알에프세미</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3240</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2065</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2220</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2401</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2582</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2686</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3027</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3332</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3637</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4190</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4625</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5612</v>
+      </c>
+      <c r="P19" t="n">
+        <v>6248</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>7210</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1682</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2040</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1883,7 +1953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD15"/>
@@ -3089,6 +3159,70 @@
         <v>7670</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>096610</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>알에프세미</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3240</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2040</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>4625</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2022-08-19</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>8600</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2020</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2905</v>
+      </c>
+      <c r="L19" t="n">
+        <v>111.52</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>3320</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3100,7 +3234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD15"/>
@@ -3547,6 +3681,29 @@
         </is>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>내일 바로 급등할 가능성 있음
+외인/코스닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>096610</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>알에프세미</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>내일 바로 급등할 가능성 있음
 외인/코스닥</t>

--- a/Data/관심주_수급주.xlsx
+++ b/Data/관심주_수급주.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-12" yWindow="-12" windowWidth="23088" windowHeight="4752" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-12" yWindow="-12" windowWidth="23088" windowHeight="4752" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="상승파동비율" sheetId="1" state="visible" r:id="rId1"/>
@@ -564,10 +564,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.21875" defaultRowHeight="14.4"/>
@@ -1941,6 +1941,356 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>237880</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>클리오</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>18250</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12345</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12918</v>
+      </c>
+      <c r="G20" t="n">
+        <v>13587</v>
+      </c>
+      <c r="H20" t="n">
+        <v>14255</v>
+      </c>
+      <c r="I20" t="n">
+        <v>14637</v>
+      </c>
+      <c r="J20" t="n">
+        <v>15898</v>
+      </c>
+      <c r="K20" t="n">
+        <v>17025</v>
+      </c>
+      <c r="L20" t="n">
+        <v>18151</v>
+      </c>
+      <c r="M20" t="n">
+        <v>20195</v>
+      </c>
+      <c r="N20" t="n">
+        <v>21800</v>
+      </c>
+      <c r="O20" t="n">
+        <v>25448</v>
+      </c>
+      <c r="P20" t="n">
+        <v>27797</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>31350</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7681</v>
+      </c>
+      <c r="S20" t="n">
+        <v>12250</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>286940</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>롯데정보통신</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>28800</v>
+      </c>
+      <c r="E21" t="n">
+        <v>22265</v>
+      </c>
+      <c r="F21" t="n">
+        <v>23255</v>
+      </c>
+      <c r="G21" t="n">
+        <v>24410</v>
+      </c>
+      <c r="H21" t="n">
+        <v>25565</v>
+      </c>
+      <c r="I21" t="n">
+        <v>26225</v>
+      </c>
+      <c r="J21" t="n">
+        <v>28403</v>
+      </c>
+      <c r="K21" t="n">
+        <v>30350</v>
+      </c>
+      <c r="L21" t="n">
+        <v>32297</v>
+      </c>
+      <c r="M21" t="n">
+        <v>35828</v>
+      </c>
+      <c r="N21" t="n">
+        <v>38600</v>
+      </c>
+      <c r="O21" t="n">
+        <v>44903</v>
+      </c>
+      <c r="P21" t="n">
+        <v>48962</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>55100</v>
+      </c>
+      <c r="R21" t="n">
+        <v>26902</v>
+      </c>
+      <c r="S21" t="n">
+        <v>22100</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>2022-10-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>아이에스동서</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>37600</v>
+      </c>
+      <c r="E22" t="n">
+        <v>26777</v>
+      </c>
+      <c r="F22" t="n">
+        <v>28439</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30378</v>
+      </c>
+      <c r="H22" t="n">
+        <v>32317</v>
+      </c>
+      <c r="I22" t="n">
+        <v>33425</v>
+      </c>
+      <c r="J22" t="n">
+        <v>37081</v>
+      </c>
+      <c r="K22" t="n">
+        <v>40350</v>
+      </c>
+      <c r="L22" t="n">
+        <v>43618</v>
+      </c>
+      <c r="M22" t="n">
+        <v>49546</v>
+      </c>
+      <c r="N22" t="n">
+        <v>54200</v>
+      </c>
+      <c r="O22" t="n">
+        <v>64781</v>
+      </c>
+      <c r="P22" t="n">
+        <v>71595</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>81900</v>
+      </c>
+      <c r="R22" t="n">
+        <v>37977</v>
+      </c>
+      <c r="S22" t="n">
+        <v>26500</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>381970</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>케이카</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>13400</v>
+      </c>
+      <c r="E23" t="n">
+        <v>11403</v>
+      </c>
+      <c r="F23" t="n">
+        <v>12624</v>
+      </c>
+      <c r="G23" t="n">
+        <v>14049</v>
+      </c>
+      <c r="H23" t="n">
+        <v>15473</v>
+      </c>
+      <c r="I23" t="n">
+        <v>16287</v>
+      </c>
+      <c r="J23" t="n">
+        <v>18973</v>
+      </c>
+      <c r="K23" t="n">
+        <v>21375</v>
+      </c>
+      <c r="L23" t="n">
+        <v>23776</v>
+      </c>
+      <c r="M23" t="n">
+        <v>28131</v>
+      </c>
+      <c r="N23" t="n">
+        <v>31550</v>
+      </c>
+      <c r="O23" t="n">
+        <v>39323</v>
+      </c>
+      <c r="P23" t="n">
+        <v>44329</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>51900</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6879</v>
+      </c>
+      <c r="S23" t="n">
+        <v>11200</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2023-01-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>099320</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>쎄트렉아이</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>43000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22697</v>
+      </c>
+      <c r="F24" t="n">
+        <v>24479</v>
+      </c>
+      <c r="G24" t="n">
+        <v>26558</v>
+      </c>
+      <c r="H24" t="n">
+        <v>28637</v>
+      </c>
+      <c r="I24" t="n">
+        <v>29825</v>
+      </c>
+      <c r="J24" t="n">
+        <v>33745</v>
+      </c>
+      <c r="K24" t="n">
+        <v>37250</v>
+      </c>
+      <c r="L24" t="n">
+        <v>40754</v>
+      </c>
+      <c r="M24" t="n">
+        <v>47110</v>
+      </c>
+      <c r="N24" t="n">
+        <v>52100</v>
+      </c>
+      <c r="O24" t="n">
+        <v>63445</v>
+      </c>
+      <c r="P24" t="n">
+        <v>70751</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>81800</v>
+      </c>
+      <c r="R24" t="n">
+        <v>10190</v>
+      </c>
+      <c r="S24" t="n">
+        <v>22400</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1953,10 +2303,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -3223,6 +3573,326 @@
         <v>3025</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>237880</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>클리오</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>18250</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12250</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>21800</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2022-04-19</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>25000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>12150</v>
+      </c>
+      <c r="K20" t="n">
+        <v>15019</v>
+      </c>
+      <c r="L20" t="n">
+        <v>121.51</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>18210</v>
+      </c>
+      <c r="P20" t="n">
+        <v>17650</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>286940</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>롯데정보통신</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>28800</v>
+      </c>
+      <c r="E21" t="n">
+        <v>22100</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2022-10-21</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>38600</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2022-04-21</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>41750</v>
+      </c>
+      <c r="J21" t="n">
+        <v>22100</v>
+      </c>
+      <c r="K21" t="n">
+        <v>24603</v>
+      </c>
+      <c r="L21" t="n">
+        <v>117.06</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>26100</v>
+      </c>
+      <c r="P21" t="n">
+        <v>26750</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>아이에스동서</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>37600</v>
+      </c>
+      <c r="E22" t="n">
+        <v>26500</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>54200</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>60600</v>
+      </c>
+      <c r="J22" t="n">
+        <v>25500</v>
+      </c>
+      <c r="K22" t="n">
+        <v>32813</v>
+      </c>
+      <c r="L22" t="n">
+        <v>114.59</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>36050</v>
+      </c>
+      <c r="P22" t="n">
+        <v>35100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>381970</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>케이카</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>13400</v>
+      </c>
+      <c r="E23" t="n">
+        <v>11200</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2023-01-02</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>31550</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>37300</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K23" t="n">
+        <v>14389</v>
+      </c>
+      <c r="L23" t="n">
+        <v>93.12</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>12800</v>
+      </c>
+      <c r="P23" t="n">
+        <v>14020</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>099320</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>쎄트렉아이</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>43000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22400</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>52100</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>53300</v>
+      </c>
+      <c r="J24" t="n">
+        <v>22300</v>
+      </c>
+      <c r="K24" t="n">
+        <v>29556</v>
+      </c>
+      <c r="L24" t="n">
+        <v>145.48</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>34100</v>
+      </c>
+      <c r="P24" t="n">
+        <v>41900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3234,10 +3904,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -3246,8 +3916,8 @@
     <col width="7" bestFit="1" customWidth="1" style="19" min="2" max="2"/>
     <col width="21.21875" customWidth="1" style="19" min="3" max="3"/>
     <col width="155" customWidth="1" style="19" min="4" max="4"/>
-    <col width="8.88671875" customWidth="1" style="19" min="5" max="12"/>
-    <col width="8.88671875" customWidth="1" style="19" min="13" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="19" min="5" max="13"/>
+    <col width="8.88671875" customWidth="1" style="19" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" thickBot="1">
@@ -3707,6 +4377,121 @@
         <is>
           <t>내일 바로 급등할 가능성 있음
 외인/코스닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>237880</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>클리오</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>리오프닝</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>286940</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>롯데정보통신</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>기관/코스피
+2차전지</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>아이에스동서</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>기관/코스닥
+폐배터리</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>381970</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>케이카</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>기관/코스피
+중국 리오프닝/3월이후 관심/바닥에서 매집진행</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>099320</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>쎄트렉아이</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>기관/코스닥
+스타링크/우주항공.드론
+1차파동 완료/2차파동 준비/35000~36000에서 진입고려</t>
         </is>
       </c>
     </row>
